--- a/Design/ProjectTask.xlsx
+++ b/Design/ProjectTask.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3552EDD1-B291-4636-905B-C373851CC7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEADD73-D428-4081-9B61-37BAAA49EFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创造一张特定ID的技能卡并加入手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +217,62 @@
   </si>
   <si>
     <t>暴击率提升的技能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发牌时触发特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时若伤害满足条件则触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌时触发效果：根据实际弃牌数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间增长伤害的技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷BUFF：降低目标造成的伤害，每1点伤害抵消1点寒冷效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后从本次战斗中移除的技能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌区分类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造X张特定ID的技能卡并加入手牌/牌堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造X张特定类型的技能卡并加入手牌/牌堆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,11 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,63 +651,54 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>18</v>
@@ -666,23 +712,20 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>19</v>
@@ -696,20 +739,17 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
         <v>0.25</v>
@@ -726,23 +766,20 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3">
@@ -754,23 +791,20 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="3">
@@ -782,23 +816,20 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="3">
@@ -810,174 +841,147 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -986,18 +990,15 @@
         <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -1009,7 +1010,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -1017,43 +1021,52 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
@@ -1065,70 +1078,203 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
         <v>19</v>
       </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F30" xr:uid="{67ED7F14-7666-42EB-999E-9FE1A312948A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F31">
+    <sortCondition ref="B2:B31"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F28 F32:F1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1141,10 +1287,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{131C5920-F8C1-424B-A831-8FD2D5F2DCE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F28 F32:F1048576" xr:uid="{131C5920-F8C1-424B-A831-8FD2D5F2DCE2}">
       <formula1>$O$4:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{5963F3EA-20BF-4E8D-97A3-F67698A5717F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E28 E32:E1048576" xr:uid="{5963F3EA-20BF-4E8D-97A3-F67698A5717F}">
       <formula1>$N$4:$N$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/Design/ProjectTask.xlsx
+++ b/Design/ProjectTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEADD73-D428-4081-9B61-37BAAA49EFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AFF6C5-0ACC-4DDD-A776-3568D74D43EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>创造X张特定类型的技能卡并加入手牌/牌堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制战斗前的状态，在战斗后还原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,8 +623,8 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,6 +1219,11 @@
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">

--- a/Design/ProjectTask.xlsx
+++ b/Design/ProjectTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AFF6C5-0ACC-4DDD-A776-3568D74D43EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6044A6-E2C5-4E2C-A55D-098DC5F0D727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,26 @@
   </si>
   <si>
     <t>复制战斗前的状态，在战斗后还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗牌算法更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1211,19 +1231,39 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">

--- a/Design/ProjectTask.xlsx
+++ b/Design/ProjectTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6044A6-E2C5-4E2C-A55D-098DC5F0D727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6E976-2ADC-43F1-A3D3-45857A45519D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,8 +643,8 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>68</v>
       </c>
@@ -1242,17 +1242,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>67</v>
       </c>
@@ -1264,6 +1264,9 @@
       </c>
       <c r="E36" t="s">
         <v>65</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
